--- a/artifacts/asset-link-builder.xlsx
+++ b/artifacts/asset-link-builder.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\agriculture-data-analytics\artifacts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\GitHub\agriculture-data-analytics\artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A278BBF1-4248-420D-BEAB-DB1899FE0436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEE2EF5-8F39-47DF-B09D-87AAEA41DC77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{349957EA-C5C2-4944-97D7-12800FD3C73B}"/>
+    <workbookView xWindow="33585" yWindow="2070" windowWidth="21600" windowHeight="11625" xr2:uid="{349957EA-C5C2-4944-97D7-12800FD3C73B}"/>
   </bookViews>
   <sheets>
     <sheet name="CSO Tables" sheetId="1" r:id="rId1"/>
@@ -240,220 +240,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -478,6 +265,9 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -541,7 +331,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{27F8B0AC-0E5D-44E4-BCAC-ADBD60703954}" name="CsoTable" displayName="CsoTable" ref="A1:H22" totalsRowShown="0" headerRowDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{27F8B0AC-0E5D-44E4-BCAC-ADBD60703954}" name="CsoTable" displayName="CsoTable" ref="A1:H22" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="A1:H22" xr:uid="{27F8B0AC-0E5D-44E4-BCAC-ADBD60703954}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H22">
     <sortCondition ref="A1:A22"/>
@@ -549,18 +339,18 @@
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{3C6B3EA6-22F2-471C-94AD-50FA0CB99145}" name="Code"/>
     <tableColumn id="2" xr3:uid="{B965ACA6-850A-443A-A80E-5EED787656CC}" name="Title"/>
-    <tableColumn id="3" xr3:uid="{B1381933-2026-48AF-BD47-E3DC5A411E9E}" name="Download Date" dataDxfId="32"/>
-    <tableColumn id="9" xr3:uid="{4B47FE2E-33A8-4A6A-9A5F-895B90B4975D}" name="file format" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{D4EFAE62-3F42-45A8-AD3F-40FA4F3FE8C2}" name="Link" dataDxfId="30">
+    <tableColumn id="3" xr3:uid="{B1381933-2026-48AF-BD47-E3DC5A411E9E}" name="Download Date" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{4B47FE2E-33A8-4A6A-9A5F-895B90B4975D}" name="file format" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{D4EFAE62-3F42-45A8-AD3F-40FA4F3FE8C2}" name="Link" dataDxfId="9">
       <calculatedColumnFormula>CONCATENATE("https://data.cso.ie/table/", TRIM(CsoTable[[#This Row],[Code]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B7CAA9C7-9E63-4358-87CE-4198407D70A8}" name="Markdown Date" dataDxfId="29">
+    <tableColumn id="6" xr3:uid="{B7CAA9C7-9E63-4358-87CE-4198407D70A8}" name="Markdown Date" dataDxfId="8">
       <calculatedColumnFormula>IF(CsoTable[[#This Row],[Download Date]]="", "", CONCATENATE(TEXT(CsoTable[[#This Row],[Download Date]], "mmmm d"),"&lt;sup&gt;",LOOKUP(DAY(CsoTable[[#This Row],[Download Date]]),{1,2,3,4,21,22,23,24,31;"st","nd","rd","th","st","nd","rd","th","st"}),"&lt;/sup&gt;,", TEXT(CsoTable[[#This Row],[Download Date]], " yyyy")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{CA85EEF9-6C83-4862-A677-4A886A63EC5A}" name="Markdown" dataDxfId="28">
+    <tableColumn id="5" xr3:uid="{CA85EEF9-6C83-4862-A677-4A886A63EC5A}" name="Markdown" dataDxfId="7">
       <calculatedColumnFormula>CONCATENATE("- [",CsoTable[[#This Row],[Title]],"](",CsoTable[[#This Row],[Filename]],") downloaded from [CSO: ",TRIM(CsoTable[[#This Row],[Code]]),"](https://data.cso.ie/table/",TRIM(CsoTable[[#This Row],[Code]]),")", IF(CsoTable[[#This Row],[Download Date]]="", "", CONCATENATE(" on ",CsoTable[[#This Row],[Markdown Date]])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{009E9336-BE71-46D9-AFD7-8ADCDF957E7F}" name="Filename" dataDxfId="18">
+    <tableColumn id="4" xr3:uid="{009E9336-BE71-46D9-AFD7-8ADCDF957E7F}" name="Filename" dataDxfId="6">
       <calculatedColumnFormula>CONCATENATE("cso-",LOWER(TRIM(CsoTable[[#This Row],[Code]])),"-",SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(CsoTable[[#This Row],[Title]]))," ", "-"),",", ""),".",CsoTable[[#This Row],[file format]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -569,22 +359,22 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EA4D60F1-6A55-4FE1-A1EF-694D1126846A}" name="Table13" displayName="Table13" ref="A1:E15" totalsRowShown="0" headerRowDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EA4D60F1-6A55-4FE1-A1EF-694D1126846A}" name="Table13" displayName="Table13" ref="A1:E15" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A1:E15" xr:uid="{27F8B0AC-0E5D-44E4-BCAC-ADBD60703954}"/>
   <tableColumns count="5">
     <tableColumn id="2" xr3:uid="{D9A6E8DF-CC57-43B1-819E-80D5808B7F06}" name="Title">
       <calculatedColumnFormula>CsoTable[[#This Row],[Title]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A964FC39-CFC5-491C-BA29-3F8B018088D0}" name="Filename" dataDxfId="25">
+    <tableColumn id="4" xr3:uid="{A964FC39-CFC5-491C-BA29-3F8B018088D0}" name="Filename" dataDxfId="3">
       <calculatedColumnFormula>CsoTable[[#This Row],[Filename]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{C052CA96-868B-4A01-9102-F5561D884193}" name="Python Name" dataDxfId="24">
+    <tableColumn id="10" xr3:uid="{C052CA96-868B-4A01-9102-F5561D884193}" name="Python Name" dataDxfId="2">
       <calculatedColumnFormula>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(UPPER(TRIM(Table13[[#This Row],[Title]])),", ","_")," ","_")," )","_"),"-","_")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{607FA246-7C6D-4D4D-BF00-4A86F6543CA4}" name="init code" dataDxfId="23">
+    <tableColumn id="11" xr3:uid="{607FA246-7C6D-4D4D-BF00-4A86F6543CA4}" name="init code" dataDxfId="1">
       <calculatedColumnFormula>CONCATENATE("        self.",Table13[[#This Row],[Python Name]],"_FILENAME: str = ""assets/",Table13[[#This Row],[Filename]],"""")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{D283E303-8B13-40EC-A868-1FF8D0761D61}" name="method code" dataDxfId="22">
+    <tableColumn id="12" xr3:uid="{D283E303-8B13-40EC-A868-1FF8D0761D61}" name="method code" dataDxfId="0">
       <calculatedColumnFormula>CONCATENATE(CHAR(10),"    def get_",LOWER(Table13[[#This Row],[Python Name]]),"_filepath(self) -&gt; str:",CHAR(10),"        return super().get_repository_filepath(self.",Table13[[#This Row],[Python Name]],"_FILENAME)",CHAR(10))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1024,9 +814,7 @@
       <c r="B5" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="2">
-        <v>44580</v>
-      </c>
+      <c r="C5" s="2"/>
       <c r="D5" s="1" t="s">
         <v>33</v>
       </c>
@@ -1036,11 +824,11 @@
       </c>
       <c r="F5" s="1" t="str">
         <f>IF(CsoTable[[#This Row],[Download Date]]="", "", CONCATENATE(TEXT(CsoTable[[#This Row],[Download Date]], "mmmm d"),"&lt;sup&gt;",LOOKUP(DAY(CsoTable[[#This Row],[Download Date]]),{1,2,3,4,21,22,23,24,31;"st","nd","rd","th","st","nd","rd","th","st"}),"&lt;/sup&gt;,", TEXT(CsoTable[[#This Row],[Download Date]], " yyyy")))</f>
-        <v>January 19&lt;sup&gt;th&lt;/sup&gt;, 2022</v>
+        <v/>
       </c>
       <c r="G5" s="1" t="str">
         <f>CONCATENATE("- [",CsoTable[[#This Row],[Title]],"](",CsoTable[[#This Row],[Filename]],") downloaded from [CSO: ",TRIM(CsoTable[[#This Row],[Code]]),"](https://data.cso.ie/table/",TRIM(CsoTable[[#This Row],[Code]]),")", IF(CsoTable[[#This Row],[Download Date]]="", "", CONCATENATE(" on ",CsoTable[[#This Row],[Markdown Date]])))</f>
-        <v>- [Value at Current Prices for Subsidies on Products](cso-aea05-value-at-current-prices-for-subsidies-on-products.csv) downloaded from [CSO: AEA05](https://data.cso.ie/table/AEA05) on January 19&lt;sup&gt;th&lt;/sup&gt;, 2022</v>
+        <v>- [Value at Current Prices for Subsidies on Products](cso-aea05-value-at-current-prices-for-subsidies-on-products.csv) downloaded from [CSO: AEA05](https://data.cso.ie/table/AEA05)</v>
       </c>
       <c r="H5" s="1" t="str">
         <f>CONCATENATE("cso-",LOWER(TRIM(CsoTable[[#This Row],[Code]])),"-",SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(CsoTable[[#This Row],[Title]]))," ", "-"),",", ""),".",CsoTable[[#This Row],[file format]])</f>
@@ -1054,9 +842,7 @@
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2">
-        <v>44580</v>
-      </c>
+      <c r="C6" s="2"/>
       <c r="D6" s="1" t="s">
         <v>33</v>
       </c>
@@ -1066,11 +852,11 @@
       </c>
       <c r="F6" s="1" t="str">
         <f>IF(CsoTable[[#This Row],[Download Date]]="", "", CONCATENATE(TEXT(CsoTable[[#This Row],[Download Date]], "mmmm d"),"&lt;sup&gt;",LOOKUP(DAY(CsoTable[[#This Row],[Download Date]]),{1,2,3,4,21,22,23,24,31;"st","nd","rd","th","st","nd","rd","th","st"}),"&lt;/sup&gt;,", TEXT(CsoTable[[#This Row],[Download Date]], " yyyy")))</f>
-        <v>January 19&lt;sup&gt;th&lt;/sup&gt;, 2022</v>
+        <v/>
       </c>
       <c r="G6" s="1" t="str">
         <f>CONCATENATE("- [",CsoTable[[#This Row],[Title]],"](",CsoTable[[#This Row],[Filename]],") downloaded from [CSO: ",TRIM(CsoTable[[#This Row],[Code]]),"](https://data.cso.ie/table/",TRIM(CsoTable[[#This Row],[Code]]),")", IF(CsoTable[[#This Row],[Download Date]]="", "", CONCATENATE(" on ",CsoTable[[#This Row],[Markdown Date]])))</f>
-        <v>- [Agricultural Input and Output Price Indices](cso-aha01-agricultural-input-and-output-price-indices.csv) downloaded from [CSO: AHA01](https://data.cso.ie/table/AHA01) on January 19&lt;sup&gt;th&lt;/sup&gt;, 2022</v>
+        <v>- [Agricultural Input and Output Price Indices](cso-aha01-agricultural-input-and-output-price-indices.csv) downloaded from [CSO: AHA01](https://data.cso.ie/table/AHA01)</v>
       </c>
       <c r="H6" s="1" t="str">
         <f>CONCATENATE("cso-",LOWER(TRIM(CsoTable[[#This Row],[Code]])),"-",SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(CsoTable[[#This Row],[Title]]))," ", "-"),",", ""),".",CsoTable[[#This Row],[file format]])</f>
@@ -1084,9 +870,7 @@
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2">
-        <v>44580</v>
-      </c>
+      <c r="C7" s="2"/>
       <c r="D7" s="1" t="s">
         <v>33</v>
       </c>
@@ -1096,11 +880,11 @@
       </c>
       <c r="F7" s="1" t="str">
         <f>IF(CsoTable[[#This Row],[Download Date]]="", "", CONCATENATE(TEXT(CsoTable[[#This Row],[Download Date]], "mmmm d"),"&lt;sup&gt;",LOOKUP(DAY(CsoTable[[#This Row],[Download Date]]),{1,2,3,4,21,22,23,24,31;"st","nd","rd","th","st","nd","rd","th","st"}),"&lt;/sup&gt;,", TEXT(CsoTable[[#This Row],[Download Date]], " yyyy")))</f>
-        <v>January 19&lt;sup&gt;th&lt;/sup&gt;, 2022</v>
+        <v/>
       </c>
       <c r="G7" s="1" t="str">
         <f>CONCATENATE("- [",CsoTable[[#This Row],[Title]],"](",CsoTable[[#This Row],[Filename]],") downloaded from [CSO: ",TRIM(CsoTable[[#This Row],[Code]]),"](https://data.cso.ie/table/",TRIM(CsoTable[[#This Row],[Code]]),")", IF(CsoTable[[#This Row],[Download Date]]="", "", CONCATENATE(" on ",CsoTable[[#This Row],[Markdown Date]])))</f>
-        <v>- [Agricultural Input and Output Price Indices](cso-aha03-agricultural-input-and-output-price-indices.csv) downloaded from [CSO: AHA03](https://data.cso.ie/table/AHA03) on January 19&lt;sup&gt;th&lt;/sup&gt;, 2022</v>
+        <v>- [Agricultural Input and Output Price Indices](cso-aha03-agricultural-input-and-output-price-indices.csv) downloaded from [CSO: AHA03](https://data.cso.ie/table/AHA03)</v>
       </c>
       <c r="H7" s="1" t="str">
         <f>CONCATENATE("cso-",LOWER(TRIM(CsoTable[[#This Row],[Code]])),"-",SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(CsoTable[[#This Row],[Title]]))," ", "-"),",", ""),".",CsoTable[[#This Row],[file format]])</f>
@@ -1114,9 +898,7 @@
       <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2">
-        <v>44580</v>
-      </c>
+      <c r="C8" s="2"/>
       <c r="D8" s="1" t="s">
         <v>33</v>
       </c>
@@ -1126,11 +908,11 @@
       </c>
       <c r="F8" s="1" t="str">
         <f>IF(CsoTable[[#This Row],[Download Date]]="", "", CONCATENATE(TEXT(CsoTable[[#This Row],[Download Date]], "mmmm d"),"&lt;sup&gt;",LOOKUP(DAY(CsoTable[[#This Row],[Download Date]]),{1,2,3,4,21,22,23,24,31;"st","nd","rd","th","st","nd","rd","th","st"}),"&lt;/sup&gt;,", TEXT(CsoTable[[#This Row],[Download Date]], " yyyy")))</f>
-        <v>January 19&lt;sup&gt;th&lt;/sup&gt;, 2022</v>
+        <v/>
       </c>
       <c r="G8" s="1" t="str">
         <f>CONCATENATE("- [",CsoTable[[#This Row],[Title]],"](",CsoTable[[#This Row],[Filename]],") downloaded from [CSO: ",TRIM(CsoTable[[#This Row],[Code]]),"](https://data.cso.ie/table/",TRIM(CsoTable[[#This Row],[Code]]),")", IF(CsoTable[[#This Row],[Download Date]]="", "", CONCATENATE(" on ",CsoTable[[#This Row],[Markdown Date]])))</f>
-        <v>- [Agricultural Input and Output Price Indices](cso-aha04-agricultural-input-and-output-price-indices.csv) downloaded from [CSO: AHA04](https://data.cso.ie/table/AHA04) on January 19&lt;sup&gt;th&lt;/sup&gt;, 2022</v>
+        <v>- [Agricultural Input and Output Price Indices](cso-aha04-agricultural-input-and-output-price-indices.csv) downloaded from [CSO: AHA04](https://data.cso.ie/table/AHA04)</v>
       </c>
       <c r="H8" s="1" t="str">
         <f>CONCATENATE("cso-",LOWER(TRIM(CsoTable[[#This Row],[Code]])),"-",SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(CsoTable[[#This Row],[Title]]))," ", "-"),",", ""),".",CsoTable[[#This Row],[file format]])</f>
@@ -1228,9 +1010,7 @@
       <c r="B12" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="2">
-        <v>44580</v>
-      </c>
+      <c r="C12" s="2"/>
       <c r="D12" s="1" t="s">
         <v>33</v>
       </c>
@@ -1240,11 +1020,11 @@
       </c>
       <c r="F12" s="1" t="str">
         <f>IF(CsoTable[[#This Row],[Download Date]]="", "", CONCATENATE(TEXT(CsoTable[[#This Row],[Download Date]], "mmmm d"),"&lt;sup&gt;",LOOKUP(DAY(CsoTable[[#This Row],[Download Date]]),{1,2,3,4,21,22,23,24,31;"st","nd","rd","th","st","nd","rd","th","st"}),"&lt;/sup&gt;,", TEXT(CsoTable[[#This Row],[Download Date]], " yyyy")))</f>
-        <v>January 19&lt;sup&gt;th&lt;/sup&gt;, 2022</v>
+        <v/>
       </c>
       <c r="G12" s="1" t="str">
         <f>CONCATENATE("- [",CsoTable[[#This Row],[Title]],"](",CsoTable[[#This Row],[Filename]],") downloaded from [CSO: ",TRIM(CsoTable[[#This Row],[Code]]),"](https://data.cso.ie/table/",TRIM(CsoTable[[#This Row],[Code]]),")", IF(CsoTable[[#This Row],[Download Date]]="", "", CONCATENATE(" on ",CsoTable[[#This Row],[Markdown Date]])))</f>
-        <v>- [Crop Yield 1985-2007](cso-aqa03-crop-yield-1985-2007.csv) downloaded from [CSO: AQA03](https://data.cso.ie/table/AQA03) on January 19&lt;sup&gt;th&lt;/sup&gt;, 2022</v>
+        <v>- [Crop Yield 1985-2007](cso-aqa03-crop-yield-1985-2007.csv) downloaded from [CSO: AQA03](https://data.cso.ie/table/AQA03)</v>
       </c>
       <c r="H12" s="1" t="str">
         <f>CONCATENATE("cso-",LOWER(TRIM(CsoTable[[#This Row],[Code]])),"-",SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(CsoTable[[#This Row],[Title]]))," ", "-"),",", ""),".",CsoTable[[#This Row],[file format]])</f>
@@ -1258,9 +1038,7 @@
       <c r="B13" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="2">
-        <v>44580</v>
-      </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="1" t="s">
         <v>33</v>
       </c>
@@ -1270,11 +1048,11 @@
       </c>
       <c r="F13" s="1" t="str">
         <f>IF(CsoTable[[#This Row],[Download Date]]="", "", CONCATENATE(TEXT(CsoTable[[#This Row],[Download Date]], "mmmm d"),"&lt;sup&gt;",LOOKUP(DAY(CsoTable[[#This Row],[Download Date]]),{1,2,3,4,21,22,23,24,31;"st","nd","rd","th","st","nd","rd","th","st"}),"&lt;/sup&gt;,", TEXT(CsoTable[[#This Row],[Download Date]], " yyyy")))</f>
-        <v>January 19&lt;sup&gt;th&lt;/sup&gt;, 2022</v>
+        <v/>
       </c>
       <c r="G13" s="1" t="str">
         <f>CONCATENATE("- [",CsoTable[[#This Row],[Title]],"](",CsoTable[[#This Row],[Filename]],") downloaded from [CSO: ",TRIM(CsoTable[[#This Row],[Code]]),"](https://data.cso.ie/table/",TRIM(CsoTable[[#This Row],[Code]]),")", IF(CsoTable[[#This Row],[Download Date]]="", "", CONCATENATE(" on ",CsoTable[[#This Row],[Markdown Date]])))</f>
-        <v>- [Crop Yield and Production](cso-aqa04-crop-yield-and-production.csv) downloaded from [CSO: AQA04](https://data.cso.ie/table/AQA04) on January 19&lt;sup&gt;th&lt;/sup&gt;, 2022</v>
+        <v>- [Crop Yield and Production](cso-aqa04-crop-yield-and-production.csv) downloaded from [CSO: AQA04](https://data.cso.ie/table/AQA04)</v>
       </c>
       <c r="H13" s="1" t="str">
         <f>CONCATENATE("cso-",LOWER(TRIM(CsoTable[[#This Row],[Code]])),"-",SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(CsoTable[[#This Row],[Title]]))," ", "-"),",", ""),".",CsoTable[[#This Row],[file format]])</f>
@@ -1543,13 +1321,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A22">
-    <cfRule type="duplicateValues" dxfId="36" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E22">
-    <cfRule type="duplicateValues" dxfId="35" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H22">
-    <cfRule type="duplicateValues" dxfId="34" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1945,7 +1723,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C15">
-    <cfRule type="duplicateValues" dxfId="27" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/artifacts/asset-link-builder.xlsx
+++ b/artifacts/asset-link-builder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\GitHub\agriculture-data-analytics\artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEE2EF5-8F39-47DF-B09D-87AAEA41DC77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FDB133-4651-4642-9703-21DFAA208286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33585" yWindow="2070" windowWidth="21600" windowHeight="11625" xr2:uid="{349957EA-C5C2-4944-97D7-12800FD3C73B}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{349957EA-C5C2-4944-97D7-12800FD3C73B}"/>
   </bookViews>
   <sheets>
     <sheet name="CSO Tables" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="67">
   <si>
     <t>Code</t>
   </si>
@@ -191,6 +191,51 @@
   </si>
   <si>
     <t>DAA01</t>
+  </si>
+  <si>
+    <t>AQA06</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Beef</t>
+  </si>
+  <si>
+    <t>Milk</t>
+  </si>
+  <si>
+    <t>Weather</t>
+  </si>
+  <si>
+    <t>GCA02</t>
+  </si>
+  <si>
+    <t>Land</t>
+  </si>
+  <si>
+    <t>MTM01</t>
+  </si>
+  <si>
+    <t>MTM03</t>
+  </si>
+  <si>
+    <t>Sunshine 1958-2021</t>
+  </si>
+  <si>
+    <t>Rainfall 1958-2021</t>
+  </si>
+  <si>
+    <t>Temperature 1958-2021</t>
+  </si>
+  <si>
+    <t>MTM02</t>
+  </si>
+  <si>
+    <t>Area Farmed in June 2013-2021</t>
+  </si>
+  <si>
+    <t>CLC Land Cover Change 2012-2018</t>
   </si>
 </sst>
 </file>
@@ -240,22 +285,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="32">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -267,27 +297,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-1809]dd\ mmmm\ yyyy;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-1809]dd\ mmmm\ yyyy;@"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -316,6 +325,195 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-1809]dd\ mmmm\ yyyy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-1809]dd\ mmmm\ yyyy;@"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -331,50 +529,51 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{27F8B0AC-0E5D-44E4-BCAC-ADBD60703954}" name="CsoTable" displayName="CsoTable" ref="A1:H22" totalsRowShown="0" headerRowDxfId="12">
-  <autoFilter ref="A1:H22" xr:uid="{27F8B0AC-0E5D-44E4-BCAC-ADBD60703954}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{27F8B0AC-0E5D-44E4-BCAC-ADBD60703954}" name="CsoTable" displayName="CsoTable" ref="A1:I27" totalsRowShown="0" headerRowDxfId="31">
+  <autoFilter ref="A1:I27" xr:uid="{27F8B0AC-0E5D-44E4-BCAC-ADBD60703954}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H22">
     <sortCondition ref="A1:A22"/>
   </sortState>
-  <tableColumns count="8">
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{3C6B3EA6-22F2-471C-94AD-50FA0CB99145}" name="Code"/>
     <tableColumn id="2" xr3:uid="{B965ACA6-850A-443A-A80E-5EED787656CC}" name="Title"/>
-    <tableColumn id="3" xr3:uid="{B1381933-2026-48AF-BD47-E3DC5A411E9E}" name="Download Date" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{4B47FE2E-33A8-4A6A-9A5F-895B90B4975D}" name="file format" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{D4EFAE62-3F42-45A8-AD3F-40FA4F3FE8C2}" name="Link" dataDxfId="9">
+    <tableColumn id="3" xr3:uid="{B1381933-2026-48AF-BD47-E3DC5A411E9E}" name="Download Date" dataDxfId="30"/>
+    <tableColumn id="9" xr3:uid="{4B47FE2E-33A8-4A6A-9A5F-895B90B4975D}" name="file format" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{D4EFAE62-3F42-45A8-AD3F-40FA4F3FE8C2}" name="Link" dataDxfId="28">
       <calculatedColumnFormula>CONCATENATE("https://data.cso.ie/table/", TRIM(CsoTable[[#This Row],[Code]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B7CAA9C7-9E63-4358-87CE-4198407D70A8}" name="Markdown Date" dataDxfId="8">
+    <tableColumn id="6" xr3:uid="{B7CAA9C7-9E63-4358-87CE-4198407D70A8}" name="Markdown Date" dataDxfId="27">
       <calculatedColumnFormula>IF(CsoTable[[#This Row],[Download Date]]="", "", CONCATENATE(TEXT(CsoTable[[#This Row],[Download Date]], "mmmm d"),"&lt;sup&gt;",LOOKUP(DAY(CsoTable[[#This Row],[Download Date]]),{1,2,3,4,21,22,23,24,31;"st","nd","rd","th","st","nd","rd","th","st"}),"&lt;/sup&gt;,", TEXT(CsoTable[[#This Row],[Download Date]], " yyyy")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{CA85EEF9-6C83-4862-A677-4A886A63EC5A}" name="Markdown" dataDxfId="7">
+    <tableColumn id="5" xr3:uid="{CA85EEF9-6C83-4862-A677-4A886A63EC5A}" name="Markdown" dataDxfId="26">
       <calculatedColumnFormula>CONCATENATE("- [",CsoTable[[#This Row],[Title]],"](",CsoTable[[#This Row],[Filename]],") downloaded from [CSO: ",TRIM(CsoTable[[#This Row],[Code]]),"](https://data.cso.ie/table/",TRIM(CsoTable[[#This Row],[Code]]),")", IF(CsoTable[[#This Row],[Download Date]]="", "", CONCATENATE(" on ",CsoTable[[#This Row],[Markdown Date]])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{009E9336-BE71-46D9-AFD7-8ADCDF957E7F}" name="Filename" dataDxfId="6">
+    <tableColumn id="4" xr3:uid="{009E9336-BE71-46D9-AFD7-8ADCDF957E7F}" name="Filename" dataDxfId="25">
       <calculatedColumnFormula>CONCATENATE("cso-",LOWER(TRIM(CsoTable[[#This Row],[Code]])),"-",SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(CsoTable[[#This Row],[Title]]))," ", "-"),",", ""),".",CsoTable[[#This Row],[file format]])</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="8" xr3:uid="{2D13EF26-0F1B-44D1-9795-09F191E166DA}" name="Category" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EA4D60F1-6A55-4FE1-A1EF-694D1126846A}" name="Table13" displayName="Table13" ref="A1:E15" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EA4D60F1-6A55-4FE1-A1EF-694D1126846A}" name="Table13" displayName="Table13" ref="A1:E15" totalsRowShown="0" headerRowDxfId="24">
   <autoFilter ref="A1:E15" xr:uid="{27F8B0AC-0E5D-44E4-BCAC-ADBD60703954}"/>
   <tableColumns count="5">
     <tableColumn id="2" xr3:uid="{D9A6E8DF-CC57-43B1-819E-80D5808B7F06}" name="Title">
       <calculatedColumnFormula>CsoTable[[#This Row],[Title]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A964FC39-CFC5-491C-BA29-3F8B018088D0}" name="Filename" dataDxfId="3">
+    <tableColumn id="4" xr3:uid="{A964FC39-CFC5-491C-BA29-3F8B018088D0}" name="Filename" dataDxfId="23">
       <calculatedColumnFormula>CsoTable[[#This Row],[Filename]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{C052CA96-868B-4A01-9102-F5561D884193}" name="Python Name" dataDxfId="2">
+    <tableColumn id="10" xr3:uid="{C052CA96-868B-4A01-9102-F5561D884193}" name="Python Name" dataDxfId="22">
       <calculatedColumnFormula>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(UPPER(TRIM(Table13[[#This Row],[Title]])),", ","_")," ","_")," )","_"),"-","_")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{607FA246-7C6D-4D4D-BF00-4A86F6543CA4}" name="init code" dataDxfId="1">
+    <tableColumn id="11" xr3:uid="{607FA246-7C6D-4D4D-BF00-4A86F6543CA4}" name="init code" dataDxfId="21">
       <calculatedColumnFormula>CONCATENATE("        self.",Table13[[#This Row],[Python Name]],"_FILENAME: str = ""assets/",Table13[[#This Row],[Filename]],"""")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{D283E303-8B13-40EC-A868-1FF8D0761D61}" name="method code" dataDxfId="0">
+    <tableColumn id="12" xr3:uid="{D283E303-8B13-40EC-A868-1FF8D0761D61}" name="method code" dataDxfId="20">
       <calculatedColumnFormula>CONCATENATE(CHAR(10),"    def get_",LOWER(Table13[[#This Row],[Python Name]]),"_filepath(self) -&gt; str:",CHAR(10),"        return super().get_repository_filepath(self.",Table13[[#This Row],[Python Name]],"_FILENAME)",CHAR(10))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -679,9 +878,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64178EC9-06A1-4D9E-8F39-790A548C771A}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -695,7 +896,7 @@
     <col min="8" max="8" width="75.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -720,8 +921,11 @@
       <c r="H1" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -748,8 +952,11 @@
         <f>CONCATENATE("cso-",LOWER(TRIM(CsoTable[[#This Row],[Code]])),"-",SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(CsoTable[[#This Row],[Title]]))," ", "-"),",", ""),".",CsoTable[[#This Row],[file format]])</f>
         <v>cso-aca03-value-for-output-input-and-income-in-agriculture.csv</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -776,8 +983,9 @@
         <f>CONCATENATE("cso-",LOWER(TRIM(CsoTable[[#This Row],[Code]])),"-",SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(CsoTable[[#This Row],[Title]]))," ", "-"),",", ""),".",CsoTable[[#This Row],[file format]])</f>
         <v>cso-adm01-livestock-slaughterings.csv</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -806,8 +1014,9 @@
         <f>CONCATENATE("cso-",LOWER(TRIM(CsoTable[[#This Row],[Code]])),"-",SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(CsoTable[[#This Row],[Title]]))," ", "-"),",", ""),".",CsoTable[[#This Row],[file format]])</f>
         <v>cso-aea01-value-at-current-prices-for-output-input-and-income-in-agriculture.csv</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -834,8 +1043,9 @@
         <f>CONCATENATE("cso-",LOWER(TRIM(CsoTable[[#This Row],[Code]])),"-",SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(CsoTable[[#This Row],[Title]]))," ", "-"),",", ""),".",CsoTable[[#This Row],[file format]])</f>
         <v>cso-aea05-value-at-current-prices-for-subsidies-on-products.csv</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -862,8 +1072,9 @@
         <f>CONCATENATE("cso-",LOWER(TRIM(CsoTable[[#This Row],[Code]])),"-",SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(CsoTable[[#This Row],[Title]]))," ", "-"),",", ""),".",CsoTable[[#This Row],[file format]])</f>
         <v>cso-aha01-agricultural-input-and-output-price-indices.csv</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -890,8 +1101,9 @@
         <f>CONCATENATE("cso-",LOWER(TRIM(CsoTable[[#This Row],[Code]])),"-",SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(CsoTable[[#This Row],[Title]]))," ", "-"),",", ""),".",CsoTable[[#This Row],[file format]])</f>
         <v>cso-aha03-agricultural-input-and-output-price-indices.csv</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -918,8 +1130,9 @@
         <f>CONCATENATE("cso-",LOWER(TRIM(CsoTable[[#This Row],[Code]])),"-",SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(CsoTable[[#This Row],[Title]]))," ", "-"),",", ""),".",CsoTable[[#This Row],[file format]])</f>
         <v>cso-aha04-agricultural-input-and-output-price-indices.csv</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -946,8 +1159,9 @@
         <f>CONCATENATE("cso-",LOWER(TRIM(CsoTable[[#This Row],[Code]])),"-",SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(CsoTable[[#This Row],[Title]]))," ", "-"),",", ""),".",CsoTable[[#This Row],[file format]])</f>
         <v>cso-ahm04-agricultural-input-and-output-price-indices.csv</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -974,15 +1188,18 @@
         <f>CONCATENATE("cso-",LOWER(TRIM(CsoTable[[#This Row],[Code]])),"-",SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(CsoTable[[#This Row],[Title]]))," ", "-"),",", ""),".",CsoTable[[#This Row],[file format]])</f>
         <v>cso-ajm01-cattle-price.csv</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2">
+        <v>44580</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>33</v>
       </c>
@@ -992,18 +1209,21 @@
       </c>
       <c r="F11" s="1" t="str">
         <f>IF(CsoTable[[#This Row],[Download Date]]="", "", CONCATENATE(TEXT(CsoTable[[#This Row],[Download Date]], "mmmm d"),"&lt;sup&gt;",LOOKUP(DAY(CsoTable[[#This Row],[Download Date]]),{1,2,3,4,21,22,23,24,31;"st","nd","rd","th","st","nd","rd","th","st"}),"&lt;/sup&gt;,", TEXT(CsoTable[[#This Row],[Download Date]], " yyyy")))</f>
-        <v/>
+        <v>January 19&lt;sup&gt;th&lt;/sup&gt;, 2022</v>
       </c>
       <c r="G11" s="1" t="str">
         <f>CONCATENATE("- [",CsoTable[[#This Row],[Title]],"](",CsoTable[[#This Row],[Filename]],") downloaded from [CSO: ",TRIM(CsoTable[[#This Row],[Code]]),"](https://data.cso.ie/table/",TRIM(CsoTable[[#This Row],[Code]]),")", IF(CsoTable[[#This Row],[Download Date]]="", "", CONCATENATE(" on ",CsoTable[[#This Row],[Markdown Date]])))</f>
-        <v>- [Fertiliser Price](cso-ajm05-fertiliser-price.csv) downloaded from [CSO: AJM05](https://data.cso.ie/table/AJM05)</v>
+        <v>- [Fertiliser Price](cso-ajm05-fertiliser-price.csv) downloaded from [CSO: AJM05](https://data.cso.ie/table/AJM05) on January 19&lt;sup&gt;th&lt;/sup&gt;, 2022</v>
       </c>
       <c r="H11" s="1" t="str">
         <f>CONCATENATE("cso-",LOWER(TRIM(CsoTable[[#This Row],[Code]])),"-",SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(CsoTable[[#This Row],[Title]]))," ", "-"),",", ""),".",CsoTable[[#This Row],[file format]])</f>
         <v>cso-ajm05-fertiliser-price.csv</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -1030,8 +1250,9 @@
         <f>CONCATENATE("cso-",LOWER(TRIM(CsoTable[[#This Row],[Code]])),"-",SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(CsoTable[[#This Row],[Title]]))," ", "-"),",", ""),".",CsoTable[[#This Row],[file format]])</f>
         <v>cso-aqa03-crop-yield-1985-2007.csv</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -1058,8 +1279,9 @@
         <f>CONCATENATE("cso-",LOWER(TRIM(CsoTable[[#This Row],[Code]])),"-",SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(CsoTable[[#This Row],[Title]]))," ", "-"),",", ""),".",CsoTable[[#This Row],[file format]])</f>
         <v>cso-aqa04-crop-yield-and-production.csv</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1086,8 +1308,9 @@
         <f>CONCATENATE("cso-",LOWER(TRIM(CsoTable[[#This Row],[Code]])),"-",SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(CsoTable[[#This Row],[Title]]))," ", "-"),",", ""),".",CsoTable[[#This Row],[file format]])</f>
         <v>cso-asea3-value-of-agricultural-output.csv</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1114,8 +1337,9 @@
         <f>CONCATENATE("cso-",LOWER(TRIM(CsoTable[[#This Row],[Code]])),"-",SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(CsoTable[[#This Row],[Title]]))," ", "-"),",", ""),".",CsoTable[[#This Row],[file format]])</f>
         <v>cso-ava10-number-of-farms-with-livestock.csv</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1142,8 +1366,9 @@
         <f>CONCATENATE("cso-",LOWER(TRIM(CsoTable[[#This Row],[Code]])),"-",SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(CsoTable[[#This Row],[Title]]))," ", "-"),",", ""),".",CsoTable[[#This Row],[file format]])</f>
         <v>cso-ava12-number-of-livestock.csv</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1170,8 +1395,9 @@
         <f>CONCATENATE("cso-",LOWER(TRIM(CsoTable[[#This Row],[Code]])),"-",SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(CsoTable[[#This Row],[Title]]))," ", "-"),",", ""),".",CsoTable[[#This Row],[file format]])</f>
         <v>cso-cvs54-farming-crime-2019.csv</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -1200,8 +1426,11 @@
         <f>CONCATENATE("cso-",LOWER(TRIM(CsoTable[[#This Row],[Code]])),"-",SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(CsoTable[[#This Row],[Title]]))," ", "-"),",", ""),".",CsoTable[[#This Row],[file format]])</f>
         <v>cso-daa01-bovine-tuberculosis.csv</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1230,8 +1459,11 @@
         <f>CONCATENATE("cso-",LOWER(TRIM(CsoTable[[#This Row],[Code]])),"-",SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(CsoTable[[#This Row],[Title]]))," ", "-"),",", ""),".",CsoTable[[#This Row],[file format]])</f>
         <v>cso-daq01-bovine-tuberculosis-quarterly.csv</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1258,8 +1490,9 @@
         <f>CONCATENATE("cso-",LOWER(TRIM(CsoTable[[#This Row],[Code]])),"-",SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(CsoTable[[#This Row],[Title]]))," ", "-"),",", ""),".",CsoTable[[#This Row],[file format]])</f>
         <v>cso-tba06-livestock-handled.csv</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1288,8 +1521,11 @@
         <f>CONCATENATE("cso-",LOWER(TRIM(CsoTable[[#This Row],[Code]])),"-",SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(CsoTable[[#This Row],[Title]]))," ", "-"),",", ""),".",CsoTable[[#This Row],[file format]])</f>
         <v>cso-tsa04-exports-of-cattle-and-beef-1930-2020.csv</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1318,16 +1554,184 @@
         <f>CONCATENATE("cso-",LOWER(TRIM(CsoTable[[#This Row],[Code]])),"-",SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(CsoTable[[#This Row],[Title]]))," ", "-"),",", ""),".",CsoTable[[#This Row],[file format]])</f>
         <v>cso-tsm04-exports-of-cattle-and-beef-1970-2021.csv</v>
       </c>
+      <c r="I22" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="2">
+        <v>44580</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="2" t="str">
+        <f>CONCATENATE("https://data.cso.ie/table/", TRIM(CsoTable[[#This Row],[Code]]))</f>
+        <v>https://data.cso.ie/table/AQA06</v>
+      </c>
+      <c r="F23" s="1" t="str">
+        <f>IF(CsoTable[[#This Row],[Download Date]]="", "", CONCATENATE(TEXT(CsoTable[[#This Row],[Download Date]], "mmmm d"),"&lt;sup&gt;",LOOKUP(DAY(CsoTable[[#This Row],[Download Date]]),{1,2,3,4,21,22,23,24,31;"st","nd","rd","th","st","nd","rd","th","st"}),"&lt;/sup&gt;,", TEXT(CsoTable[[#This Row],[Download Date]], " yyyy")))</f>
+        <v>January 19&lt;sup&gt;th&lt;/sup&gt;, 2022</v>
+      </c>
+      <c r="G23" s="1" t="str">
+        <f>CONCATENATE("- [",CsoTable[[#This Row],[Title]],"](",CsoTable[[#This Row],[Filename]],") downloaded from [CSO: ",TRIM(CsoTable[[#This Row],[Code]]),"](https://data.cso.ie/table/",TRIM(CsoTable[[#This Row],[Code]]),")", IF(CsoTable[[#This Row],[Download Date]]="", "", CONCATENATE(" on ",CsoTable[[#This Row],[Markdown Date]])))</f>
+        <v>- [Area Farmed in June 2013-2021](cso-aqa06-area-farmed-in-june-2013-2021.csv) downloaded from [CSO: AQA06](https://data.cso.ie/table/AQA06) on January 19&lt;sup&gt;th&lt;/sup&gt;, 2022</v>
+      </c>
+      <c r="H23" s="1" t="str">
+        <f>CONCATENATE("cso-",LOWER(TRIM(CsoTable[[#This Row],[Code]])),"-",SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(CsoTable[[#This Row],[Title]]))," ", "-"),",", ""),".",CsoTable[[#This Row],[file format]])</f>
+        <v>cso-aqa06-area-farmed-in-june-2013-2021.csv</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="2">
+        <v>44580</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="2" t="str">
+        <f>CONCATENATE("https://data.cso.ie/table/", TRIM(CsoTable[[#This Row],[Code]]))</f>
+        <v>https://data.cso.ie/table/GCA02</v>
+      </c>
+      <c r="F24" s="1" t="str">
+        <f>IF(CsoTable[[#This Row],[Download Date]]="", "", CONCATENATE(TEXT(CsoTable[[#This Row],[Download Date]], "mmmm d"),"&lt;sup&gt;",LOOKUP(DAY(CsoTable[[#This Row],[Download Date]]),{1,2,3,4,21,22,23,24,31;"st","nd","rd","th","st","nd","rd","th","st"}),"&lt;/sup&gt;,", TEXT(CsoTable[[#This Row],[Download Date]], " yyyy")))</f>
+        <v>January 19&lt;sup&gt;th&lt;/sup&gt;, 2022</v>
+      </c>
+      <c r="G24" s="1" t="str">
+        <f>CONCATENATE("- [",CsoTable[[#This Row],[Title]],"](",CsoTable[[#This Row],[Filename]],") downloaded from [CSO: ",TRIM(CsoTable[[#This Row],[Code]]),"](https://data.cso.ie/table/",TRIM(CsoTable[[#This Row],[Code]]),")", IF(CsoTable[[#This Row],[Download Date]]="", "", CONCATENATE(" on ",CsoTable[[#This Row],[Markdown Date]])))</f>
+        <v>- [CLC Land Cover Change 2012-2018](cso-gca02-clc-land-cover-change-2012-2018.csv) downloaded from [CSO: GCA02](https://data.cso.ie/table/GCA02) on January 19&lt;sup&gt;th&lt;/sup&gt;, 2022</v>
+      </c>
+      <c r="H24" s="1" t="str">
+        <f>CONCATENATE("cso-",LOWER(TRIM(CsoTable[[#This Row],[Code]])),"-",SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(CsoTable[[#This Row],[Title]]))," ", "-"),",", ""),".",CsoTable[[#This Row],[file format]])</f>
+        <v>cso-gca02-clc-land-cover-change-2012-2018.csv</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="2">
+        <v>44580</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="2" t="str">
+        <f>CONCATENATE("https://data.cso.ie/table/", TRIM(CsoTable[[#This Row],[Code]]))</f>
+        <v>https://data.cso.ie/table/MTM01</v>
+      </c>
+      <c r="F25" s="1" t="str">
+        <f>IF(CsoTable[[#This Row],[Download Date]]="", "", CONCATENATE(TEXT(CsoTable[[#This Row],[Download Date]], "mmmm d"),"&lt;sup&gt;",LOOKUP(DAY(CsoTable[[#This Row],[Download Date]]),{1,2,3,4,21,22,23,24,31;"st","nd","rd","th","st","nd","rd","th","st"}),"&lt;/sup&gt;,", TEXT(CsoTable[[#This Row],[Download Date]], " yyyy")))</f>
+        <v>January 19&lt;sup&gt;th&lt;/sup&gt;, 2022</v>
+      </c>
+      <c r="G25" s="1" t="str">
+        <f>CONCATENATE("- [",CsoTable[[#This Row],[Title]],"](",CsoTable[[#This Row],[Filename]],") downloaded from [CSO: ",TRIM(CsoTable[[#This Row],[Code]]),"](https://data.cso.ie/table/",TRIM(CsoTable[[#This Row],[Code]]),")", IF(CsoTable[[#This Row],[Download Date]]="", "", CONCATENATE(" on ",CsoTable[[#This Row],[Markdown Date]])))</f>
+        <v>- [Rainfall 1958-2021](cso-mtm01-rainfall-1958-2021.csv) downloaded from [CSO: MTM01](https://data.cso.ie/table/MTM01) on January 19&lt;sup&gt;th&lt;/sup&gt;, 2022</v>
+      </c>
+      <c r="H25" s="1" t="str">
+        <f>CONCATENATE("cso-",LOWER(TRIM(CsoTable[[#This Row],[Code]])),"-",SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(CsoTable[[#This Row],[Title]]))," ", "-"),",", ""),".",CsoTable[[#This Row],[file format]])</f>
+        <v>cso-mtm01-rainfall-1958-2021.csv</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="2">
+        <v>44580</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="2" t="str">
+        <f>CONCATENATE("https://data.cso.ie/table/", TRIM(CsoTable[[#This Row],[Code]]))</f>
+        <v>https://data.cso.ie/table/MTM03</v>
+      </c>
+      <c r="F26" s="1" t="str">
+        <f>IF(CsoTable[[#This Row],[Download Date]]="", "", CONCATENATE(TEXT(CsoTable[[#This Row],[Download Date]], "mmmm d"),"&lt;sup&gt;",LOOKUP(DAY(CsoTable[[#This Row],[Download Date]]),{1,2,3,4,21,22,23,24,31;"st","nd","rd","th","st","nd","rd","th","st"}),"&lt;/sup&gt;,", TEXT(CsoTable[[#This Row],[Download Date]], " yyyy")))</f>
+        <v>January 19&lt;sup&gt;th&lt;/sup&gt;, 2022</v>
+      </c>
+      <c r="G26" s="1" t="str">
+        <f>CONCATENATE("- [",CsoTable[[#This Row],[Title]],"](",CsoTable[[#This Row],[Filename]],") downloaded from [CSO: ",TRIM(CsoTable[[#This Row],[Code]]),"](https://data.cso.ie/table/",TRIM(CsoTable[[#This Row],[Code]]),")", IF(CsoTable[[#This Row],[Download Date]]="", "", CONCATENATE(" on ",CsoTable[[#This Row],[Markdown Date]])))</f>
+        <v>- [Sunshine 1958-2021](cso-mtm03-sunshine-1958-2021.csv) downloaded from [CSO: MTM03](https://data.cso.ie/table/MTM03) on January 19&lt;sup&gt;th&lt;/sup&gt;, 2022</v>
+      </c>
+      <c r="H26" s="1" t="str">
+        <f>CONCATENATE("cso-",LOWER(TRIM(CsoTable[[#This Row],[Code]])),"-",SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(CsoTable[[#This Row],[Title]]))," ", "-"),",", ""),".",CsoTable[[#This Row],[file format]])</f>
+        <v>cso-mtm03-sunshine-1958-2021.csv</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="2">
+        <v>44580</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="2" t="str">
+        <f>CONCATENATE("https://data.cso.ie/table/", TRIM(CsoTable[[#This Row],[Code]]))</f>
+        <v>https://data.cso.ie/table/MTM02</v>
+      </c>
+      <c r="F27" s="1" t="str">
+        <f>IF(CsoTable[[#This Row],[Download Date]]="", "", CONCATENATE(TEXT(CsoTable[[#This Row],[Download Date]], "mmmm d"),"&lt;sup&gt;",LOOKUP(DAY(CsoTable[[#This Row],[Download Date]]),{1,2,3,4,21,22,23,24,31;"st","nd","rd","th","st","nd","rd","th","st"}),"&lt;/sup&gt;,", TEXT(CsoTable[[#This Row],[Download Date]], " yyyy")))</f>
+        <v>January 19&lt;sup&gt;th&lt;/sup&gt;, 2022</v>
+      </c>
+      <c r="G27" s="1" t="str">
+        <f>CONCATENATE("- [",CsoTable[[#This Row],[Title]],"](",CsoTable[[#This Row],[Filename]],") downloaded from [CSO: ",TRIM(CsoTable[[#This Row],[Code]]),"](https://data.cso.ie/table/",TRIM(CsoTable[[#This Row],[Code]]),")", IF(CsoTable[[#This Row],[Download Date]]="", "", CONCATENATE(" on ",CsoTable[[#This Row],[Markdown Date]])))</f>
+        <v>- [Temperature 1958-2021](cso-mtm02-temperature-1958-2021.csv) downloaded from [CSO: MTM02](https://data.cso.ie/table/MTM02) on January 19&lt;sup&gt;th&lt;/sup&gt;, 2022</v>
+      </c>
+      <c r="H27" s="1" t="str">
+        <f>CONCATENATE("cso-",LOWER(TRIM(CsoTable[[#This Row],[Code]])),"-",SUBSTITUTE(SUBSTITUTE(LOWER(TRIM(CsoTable[[#This Row],[Title]]))," ", "-"),",", ""),".",CsoTable[[#This Row],[file format]])</f>
+        <v>cso-mtm02-temperature-1958-2021.csv</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A22">
-    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
+  <conditionalFormatting sqref="A2:A27">
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E22">
-    <cfRule type="duplicateValues" dxfId="14" priority="3"/>
+  <conditionalFormatting sqref="E2:E27">
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H22">
-    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+  <conditionalFormatting sqref="H2:H27">
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1723,7 +2127,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C15">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
